--- a/results/table1/coh_2.xlsx
+++ b/results/table1/coh_2.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,10 +519,10 @@
       <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>1878</v>
+        <v>4354</v>
       </c>
       <c r="E4" t="n">
-        <v>7932</v>
+        <v>8406</v>
       </c>
     </row>
     <row r="5">
@@ -541,12 +541,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>777 (41.4)</t>
+          <t>1179 (27.1)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2971 (37.5)</t>
+          <t>3203 (38.1)</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>453 (24.1)</t>
+          <t>1038 (23.8)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1879 (23.7)</t>
+          <t>1984 (23.6)</t>
         </is>
       </c>
     </row>
@@ -579,12 +579,12 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>392 (20.9)</t>
+          <t>1164 (26.7)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1793 (22.6)</t>
+          <t>1866 (22.2)</t>
         </is>
       </c>
     </row>
@@ -598,12 +598,12 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>256 (13.6)</t>
+          <t>973 (22.3)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1289 (16.3)</t>
+          <t>1353 (16.1)</t>
         </is>
       </c>
     </row>
@@ -623,12 +623,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>871 (46.4)</t>
+          <t>1854 (42.6)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3346 (42.2)</t>
+          <t>3536 (42.1)</t>
         </is>
       </c>
     </row>
@@ -648,12 +648,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>712 (37.9)</t>
+          <t>1725 (39.6)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3995 (50.4)</t>
+          <t>4245 (50.5)</t>
         </is>
       </c>
     </row>
@@ -667,12 +667,12 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>261 (13.9)</t>
+          <t>496 (11.4)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>438 (5.5)</t>
+          <t>464 (5.5)</t>
         </is>
       </c>
     </row>
@@ -686,12 +686,12 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>905 (48.2)</t>
+          <t>2133 (49.0)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3499 (44.1)</t>
+          <t>3697 (44.0)</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>593 (31.6)</t>
+          <t>970 (22.3)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>373 (4.7)</t>
+          <t>397 (4.7)</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>137 (7.3)</t>
+          <t>269 (6.2)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1025 (12.9)</t>
+          <t>1058 (12.6)</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>650 (34.6)</t>
+          <t>1521 (34.9)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3322 (41.9)</t>
+          <t>3485 (41.5)</t>
         </is>
       </c>
     </row>
@@ -786,12 +786,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>370 (19.7)</t>
+          <t>1127 (25.9)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1464 (18.5)</t>
+          <t>1764 (21.0)</t>
         </is>
       </c>
     </row>
@@ -811,19 +811,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>533 (28.4)</t>
+          <t>1457 (33.5)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2173 (27.4)</t>
+          <t>2538 (30.2)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Mechanical Ventilation (whole stay), n (%)</t>
+          <t>MV initiated until the cohort day, n (%)</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -836,19 +836,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1220 (65.0)</t>
+          <t>2949 (67.7)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5314 (67.0)</t>
+          <t>5140 (61.1)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>RRT (whole stay), n (%)</t>
+          <t>RRT initiated until the cohort day, n (%)</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>320 (17.0)</t>
+          <t>491 (11.3)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>936 (11.8)</t>
+          <t>654 (7.8)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Vasopressors (whole stay), n (%)</t>
+          <t>Vasopressor initiated until the cohort day, n (%)</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -886,24 +886,24 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>987 (52.6)</t>
+          <t>2243 (51.5)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4746 (59.8)</t>
+          <t>4537 (54.0)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Insulin Transfusion (whole stay), n (%)</t>
+          <t>Mechanical Ventilation (whole stay), n (%)</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -911,24 +911,24 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1212 (64.5)</t>
+          <t>3215 (73.8)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4949 (62.4)</t>
+          <t>5716 (68.0)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Blood Transufusion (whole stay), n (%)</t>
+          <t>RRT (whole stay), n (%)</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -936,24 +936,24 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>221 (11.8)</t>
+          <t>739 (17.0)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1058 (13.3)</t>
+          <t>1075 (12.8)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Fluids Received (whole stay), n (%)</t>
+          <t>Vasopressors (whole stay), n (%)</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -961,19 +961,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1845 (98.2)</t>
+          <t>2560 (58.8)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7821 (98.6)</t>
+          <t>5128 (61.0)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Hypertension, n (%)</t>
+          <t>Insulin Transfusion (whole stay), n (%)</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
@@ -986,19 +986,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1328 (70.7)</t>
+          <t>2782 (63.9)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5205 (65.6)</t>
+          <t>5315 (63.2)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Congestive Heart Failure, n (%)</t>
+          <t>Blood Transufusion (whole stay), n (%)</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
@@ -1011,19 +1011,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>721 (38.4)</t>
+          <t>556 (12.8)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2989 (37.7)</t>
+          <t>1140 (13.6)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>COPD, n (%)</t>
+          <t>Fluids Received (whole stay), n (%)</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
@@ -1036,19 +1036,19 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>435 (23.2)</t>
+          <t>4296 (98.7)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2002 (25.2)</t>
+          <t>8295 (98.7)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Asthma, n (%)</t>
+          <t>Hypertension, n (%)</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
@@ -1061,19 +1061,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>24 (1.3)</t>
+          <t>2865 (65.8)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>119 (1.5)</t>
+          <t>5496 (65.4)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Coronary Artery Disease, n (%)</t>
+          <t>Congestive Heart Failure, n (%)</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
@@ -1086,109 +1086,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>573 (30.5)</t>
+          <t>1553 (35.7)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3011 (38.0)</t>
+          <t>3195 (38.0)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
+          <t>COPD, n (%)</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1013 (23.3)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2126 (25.3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Asthma, n (%)</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>51 (1.2)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>136 (1.6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Coronary Artery Disease, n (%)</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1409 (32.4)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3177 (37.8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
           <t>CKD Stage, n (%)</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>3 (0.2)</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>11 (0.6)</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>53 (0.7)</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>129 (6.9)</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>406 (5.1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>49 (2.6)</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>146 (1.8)</t>
-        </is>
-      </c>
+          <t>4 (0.1)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>207 (11.0)</t>
+          <t>23 (0.5)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>383 (4.8)</t>
+          <t>55 (0.7)</t>
         </is>
       </c>
     </row>
@@ -1196,43 +1214,37 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1479 (78.8)</t>
+          <t>241 (5.5)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>6944 (87.5)</t>
+          <t>423 (5.0)</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>Diabetes Type, n (%)</t>
-        </is>
-      </c>
+      <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>62 (3.3)</t>
+          <t>84 (1.9)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>226 (2.8)</t>
+          <t>156 (1.9)</t>
         </is>
       </c>
     </row>
@@ -1240,18 +1252,18 @@
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>747 (39.8)</t>
+          <t>320 (7.3)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2226 (28.1)</t>
+          <t>410 (4.9)</t>
         </is>
       </c>
     </row>
@@ -1265,19 +1277,19 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1069 (56.9)</t>
+          <t>3682 (84.6)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5480 (69.1)</t>
+          <t>7362 (87.6)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Connective Tissue Disease, n (%)</t>
+          <t>Diabetes Type, n (%)</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
@@ -1290,69 +1302,57 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>91 (4.8)</t>
+          <t>105 (2.4)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>374 (4.7)</t>
+          <t>239 (2.8)</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Pneumonia, n (%)</t>
-        </is>
-      </c>
+      <c r="A39" s="1" t="n"/>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>97 (5.2)</t>
+          <t>1436 (33.0)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>412 (5.2)</t>
+          <t>2351 (28.0)</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Urinary Tract Infection, n (%)</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>12 (0.6)</t>
+          <t>2813 (64.6)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>58 (0.7)</t>
+          <t>5816 (69.2)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Biliary Tract Infection, n (%)</t>
+          <t>Connective Tissue Disease, n (%)</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
@@ -1365,19 +1365,19 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1 (0.1)</t>
+          <t>177 (4.1)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>13 (0.2)</t>
+          <t>398 (4.7)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Skin Infection, n (%)</t>
+          <t>Pneumonia, n (%)</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
@@ -1390,24 +1390,24 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2 (0.1)</t>
+          <t>240 (5.5)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>9 (0.1)</t>
+          <t>431 (5.1)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>MV_elig_day, n (%)</t>
+          <t>Urinary Tract Infection, n (%)</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>79 (4.2)</t>
+          <t>25 (0.6)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>420 (5.3)</t>
+          <t>62 (0.7)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>RRT_elig_day, n (%)</t>
+          <t>Biliary Tract Infection, n (%)</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1440,24 +1440,24 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>53 (2.8)</t>
+          <t>5 (0.1)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>180 (2.3)</t>
+          <t>16 (0.2)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>VP_elig_day, n (%)</t>
+          <t>Skin Infection, n (%)</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1465,1276 +1465,976 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>82 (4.4)</t>
+          <t>3 (0.1)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>383 (4.8)</t>
+          <t>9 (0.1)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>MV initiated in day 1, n (%)</t>
-        </is>
-      </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Age, median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr"/>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1026 (54.6)</t>
+          <t>64 [52,76]</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4401 (55.5)</t>
+          <t>68 [57,78]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>RRT initiated in day 1, n (%)</t>
-        </is>
-      </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>9869</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>179 (9.5)</t>
+          <t>7.00 [4.52,12.04]</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>421 (5.3)</t>
+          <t>7.04 [4.54,11.63]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Vasopressor initiated in day 1, n (%)</t>
-        </is>
-      </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>2891</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>794 (42.3)</t>
+          <t>6.17 [4.08,11.17]</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3879 (48.9)</t>
+          <t>5.67 [3.92,9.45]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>MV initiated in day 2, n (%)</t>
-        </is>
-      </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Hospital LOS (days, if deceased), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>9869</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>77 (4.1)</t>
+          <t>11.00 [6.00,19.00]</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>402 (5.1)</t>
+          <t>12.00 [7.00,20.00]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>RRT initiated in day 2, n (%)</t>
-        </is>
-      </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Hospital LOS (days, if survived), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>2891</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>53 (2.8)</t>
+          <t>14.00 [9.00,23.00]</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>172 (2.2)</t>
+          <t>13.00 [9.00,21.75]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Vasopressor initiated in day 2, n (%)</t>
-        </is>
-      </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr"/>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>80 (4.3)</t>
+          <t>6 [4,8]</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>370 (4.7)</t>
+          <t>6 [4,8]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>MV initiated in day 3, n (%)</t>
-        </is>
-      </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>SOFA Score (admission), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr"/>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>43 (2.3)</t>
+          <t>6 [4,9]</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>215 (2.7)</t>
+          <t>6 [4,9]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>RRT initiated in day 3, n (%)</t>
-        </is>
-      </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>SOFA: Respiratory (admission), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>3845</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>28 (1.5)</t>
+          <t>3 [1,4]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>121 (1.5)</t>
+          <t>2 [1,3]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Vasopressor initiated in day 3, n (%)</t>
-        </is>
-      </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>SOFA: Coagulation (admission), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>38 (2.0)</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>194 (2.4)</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>MV initiated in day 4, n (%)</t>
-        </is>
-      </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>SOFA: Liver (admission), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>4591</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>32 (1.7)</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>108 (1.4)</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>RRT initiated in day 4, n (%)</t>
-        </is>
-      </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>SOFA: Cardiovascular (admission), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>18 (1.0)</t>
+          <t>1 [1,4]</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>57 (0.7)</t>
+          <t>1 [1,3]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Vasopressor initiated in day 4, n (%)</t>
-        </is>
-      </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>SOFA: CNS (admission), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>28 (1.5)</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>100 (1.3)</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Age, median [Q1,Q3]</t>
+          <t>SOFA: Renal (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>64 [51,75]</t>
+          <t>1 [0,2]</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>68 [57,78]</t>
+          <t>1 [0,2]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
+          <t>sofa_max_0_24h, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B59" s="1" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>7976</v>
+        <v>11</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>6.65 [4.30,10.23]</t>
+          <t>6.0 [3.0,9.0]</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>6.63 [4.37,10.63]</t>
+          <t>6.0 [3.0,8.0]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
+          <t>respiratory_max_0_24h, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>1834</v>
+        <v>11</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5.67 [3.92,9.84]</t>
+          <t>1.0 [0.0,3.0]</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5.46 [3.92,9.04]</t>
+          <t>2.0 [0.0,2.0]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Hospital LOS (days, if deceased), median [Q1,Q3]</t>
+          <t>coagulation_max_0_24h, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>7976</v>
+        <v>11</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>11.00 [7.00,19.75]</t>
+          <t>0.0 [0.0,1.0]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>12.00 [7.00,19.00]</t>
+          <t>0.0 [0.0,1.0]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Hospital LOS (days, if survived), median [Q1,Q3]</t>
+          <t>liver_max_0_24h, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>1834</v>
+        <v>11</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>14.00 [9.00,23.00]</t>
+          <t>0.0 [0.0,0.0]</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>13.00 [9.00,21.00]</t>
+          <t>0.0 [0.0,0.0]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
+          <t>cardiovascular_max_0_24h, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>1.0 [1.0,3.0]</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>1.0 [1.0,3.0]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>SOFA Score (admission), median [Q1,Q3]</t>
+          <t>cns_max_0_24h, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>6 [4,9]</t>
+          <t>0.0 [0.0,1.0]</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>6 [4,9]</t>
+          <t>0.0 [0.0,1.0]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Respiratory (admission), median [Q1,Q3]</t>
+          <t>renal_max_0_24h, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>3187</v>
+        <v>11</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2 [1,3]</t>
+          <t>1.0 [0.0,2.0]</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2 [2,3]</t>
+          <t>1.0 [0.0,2.0]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Coagulation (admission), median [Q1,Q3]</t>
+          <t>Fluids Volume (first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>17</v>
+        <v>4493</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>888 [295,1611]</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>784 [250,1583]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Liver (admission), median [Q1,Q3]</t>
+          <t>Fluids Volume (whole stay), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>3716</v>
+        <v>169</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>4268 [1712,8599]</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>3479 [1335,7371]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Cardiovascular (admission), median [Q1,Q3]</t>
+          <t>Fluids Volume (whole stay, normalized by ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1 [1,3]</t>
+          <t>558.1 [286.6,975.2]</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1 [1,3]</t>
+          <t>503.4 [239.3,895.0]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>SOFA: CNS (admission), median [Q1,Q3]</t>
+          <t>FiO2 (mean %, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B69" s="1" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>21</v>
+        <v>6728</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>50 [40,61]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>50 [42,65]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Renal (admission), median [Q1,Q3]</t>
+          <t>MV_time_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>3829</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1 [0,2]</t>
+          <t>56.0 [23.0,115.0]</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1 [0,2]</t>
+          <t>46.0 [19.0,101.0]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>SOFA (day), median [Q1,Q3]</t>
+          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>14</v>
+        <v>3829</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>5.0 [3.0,7.0]</t>
+          <t>0.31 [0.15,0.53]</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>5.0 [3.0,7.0]</t>
+          <t>0.26 [0.13,0.46]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Respiratory (day), median [Q1,Q3]</t>
+          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>14</v>
+        <v>3829</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.0 [0.0,2.0]</t>
+          <t>2.0 [1.0,7.0]</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.0 [0.0,2.0]</t>
+          <t>3.0 [1.0,11.0]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Coagulation (day), median [Q1,Q3]</t>
+          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B73" s="1" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>14</v>
+        <v>10946</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>23.0 [6.0,66.0]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>30.0 [7.5,77.0]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Liver (day), median [Q1,Q3]</t>
+          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>14</v>
+        <v>4959</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.0 [0.0,0.0]</t>
+          <t>3.0 [1.0,18.0]</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0.0 [0.0,0.0]</t>
+          <t>4.0 [1.0,15.0]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Cardiovascular (day), median [Q1,Q3]</t>
+          <t>VP_time_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B75" s="1" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>14</v>
+        <v>4959</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1.0 [1.0,3.0]</t>
+          <t>43.0 [15.0,97.0]</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1.0 [1.0,3.0]</t>
+          <t>40.0 [15.0,84.0]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>SOFA: CNS (day), median [Q1,Q3]</t>
+          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B76" s="1" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>14</v>
+        <v>4959</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>0.25 [0.08,0.51]</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>0.25 [0.09,0.47]</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Renal (day), median [Q1,Q3]</t>
+          <t>Respiratory Rate (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B77" s="1" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1.0 [0.0,2.0]</t>
+          <t>19.6 [17.1,22.6]</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0.0 [0.0,2.0]</t>
+          <t>19.3 [17.0,22.3]</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Fluids Volume (day), median [Q1,Q3]</t>
+          <t>Mean Blood Pressure (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B78" s="1" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>3219</v>
+        <v>21</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>608 [242,1500]</t>
+          <t>77.0 [71.0,85.0]</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>601 [238,1414]</t>
+          <t>74.8 [69.4,81.9]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Fluids Volume (whole stay), median [Q1,Q3]</t>
+          <t>Temperature (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B79" s="1" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>144</v>
+        <v>733</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>3460 [1437,7132]</t>
+          <t>37.0 [36.6,37.4]</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3254 [1261,6823]</t>
+          <t>36.9 [36.6,37.3]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Fluids Volume (whole stay, normalized by ICU LOS), median [Q1,Q3]</t>
+          <t>SpO2 (%, mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B80" s="1" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>516.0 [251.4,928.5]</t>
+          <t>97.7 [96.1,99.0]</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>490.4 [227.6,883.4]</t>
+          <t>97.2 [95.7,98.6]</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>FiO2 (mean %), median [Q1,Q3]</t>
+          <t>Heart Rate (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B81" s="1" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>5544</v>
+        <v>21</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>43 [40,53]</t>
+          <t>86.7 [76.1,99.8]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>50 [40,58]</t>
+          <t>86.7 [76.1,99.0]</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>MV_time_abs_hours, median [Q1,Q3]</t>
+          <t>PaO2 (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B82" s="1" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>3276</v>
+        <v>3247</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>49.0 [21.8,100.0]</t>
+          <t>87.0 [69.0,121.0]</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>42.0 [18.0,91.0]</t>
+          <t>86.0 [70.0,114.0]</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
+          <t>PaCO2 (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B83" s="1" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>3276</v>
+        <v>3247</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.30 [0.14,0.50]</t>
+          <t>44.0 [38.0,52.0]</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0.25 [0.12,0.45]</t>
+          <t>45.0 [39.0,53.0]</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>pH (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B84" s="1" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>3276</v>
+        <v>1801</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2.0 [1.0,10.0]</t>
+          <t>7.3 [7.2,7.4]</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3.0 [1.0,10.0]</t>
+          <t>7.3 [7.2,7.4]</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>Glucose (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B85" s="1" t="inlineStr"/>
       <c r="C85" t="n">
-        <v>8554</v>
+        <v>44</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>18.5 [4.0,55.0]</t>
+          <t>156.0 [124.0,212.0]</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>27.0 [6.0,69.0]</t>
+          <t>150.0 [122.0,199.0]</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>Sodium (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B86" s="1" t="inlineStr"/>
       <c r="C86" t="n">
-        <v>3992</v>
+        <v>19</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>4.0 [1.0,17.0]</t>
+          <t>137.0 [134.0,140.0]</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>4.0 [1.0,14.0]</t>
+          <t>137.0 [134.0,140.0]</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>VP_time_abs_hours, median [Q1,Q3]</t>
+          <t>Potassium (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B87" s="1" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>3992</v>
+        <v>23</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>37.0 [11.0,79.8]</t>
+          <t>4.5 [4.1,5.1]</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>37.0 [14.0,76.0]</t>
+          <t>4.5 [4.1,5.0]</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
+          <t>Cortisol (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B88" s="1" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>3992</v>
+        <v>12444</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.22 [0.07,0.46]</t>
+          <t>22.4 [13.6,35.9]</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0.24 [0.09,0.47]</t>
+          <t>23.1 [12.8,36.6]</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Respiratory Rate (mean), median [Q1,Q3]</t>
+          <t>Hemoglobin (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B89" s="1" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>17</v>
+        <v>1711</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>19.6 [17.0,22.5]</t>
+          <t>10.0 [8.5,11.7]</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>19.4 [17.2,22.2]</t>
+          <t>10.0 [8.5,11.6]</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Mean Blood Pressure (mean), median [Q1,Q3]</t>
+          <t>Fibrinogen (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B90" s="1" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>15</v>
+        <v>8125</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>78.2 [71.9,86.1]</t>
+          <t>232.0 [159.0,353.5]</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>75.0 [69.9,81.9]</t>
+          <t>233.0 [162.0,356.0]</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Temperature (mean, first 24h), median [Q1,Q3]</t>
+          <t>INR (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B91" s="1" t="inlineStr"/>
       <c r="C91" t="n">
-        <v>322</v>
+        <v>661</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>37.0 [36.7,37.3]</t>
+          <t>1.3 [1.2,1.7]</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
-        <is>
-          <t>36.9 [36.7,37.3]</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
-        <is>
-          <t>SpO2 (%, mean), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B92" s="1" t="inlineStr"/>
-      <c r="C92" t="n">
-        <v>16</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>97.7 [96.3,99.0]</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>97.0 [95.7,98.1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>Heart Rate (mean), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B93" s="1" t="inlineStr"/>
-      <c r="C93" t="n">
-        <v>15</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>88.0 [77.2,99.7]</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>86.3 [76.7,97.4]</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
-        <is>
-          <t>PaO2 (min), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B94" s="1" t="inlineStr"/>
-      <c r="C94" t="n">
-        <v>2228</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>79.0 [64.0,108.0]</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>80.0 [66.0,103.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>PaCO2 (max), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B95" s="1" t="inlineStr"/>
-      <c r="C95" t="n">
-        <v>2228</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>45.0 [39.0,53.0]</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>46.0 [40.0,54.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
-        <is>
-          <t>pH (min), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B96" s="1" t="inlineStr"/>
-      <c r="C96" t="n">
-        <v>1151</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>7.3 [7.2,7.4]</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>7.3 [7.2,7.4]</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
-        <is>
-          <t>Glucose (max), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B97" s="1" t="inlineStr"/>
-      <c r="C97" t="n">
-        <v>8</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>172.0 [138.0,242.0]</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>163.0 [135.0,214.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
-        <is>
-          <t>Sodium (min), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B98" s="1" t="inlineStr"/>
-      <c r="C98" t="n">
-        <v>7</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>136.0 [133.0,139.0]</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>136.0 [133.0,139.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>Potassium (max), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B99" s="1" t="inlineStr"/>
-      <c r="C99" t="n">
-        <v>7</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>4.7 [4.3,5.4]</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>4.6 [4.3,5.1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
-        <is>
-          <t>Cortisol (min), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B100" s="1" t="inlineStr"/>
-      <c r="C100" t="n">
-        <v>9588</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>18.2 [11.5,26.9]</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>20.2 [13.2,31.3]</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="inlineStr">
-        <is>
-          <t>Hemoglobin (min), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B101" s="1" t="inlineStr"/>
-      <c r="C101" t="n">
-        <v>358</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>9.6 [8.3,11.1]</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>9.7 [8.5,11.1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>Fibrinogen (min), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B102" s="1" t="inlineStr"/>
-      <c r="C102" t="n">
-        <v>5895</v>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>242.0 [151.5,388.0]</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>242.0 [165.0,372.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>INR (max), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B103" s="1" t="inlineStr"/>
-      <c r="C103" t="n">
-        <v>250</v>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>1.4 [1.2,1.8]</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
         <is>
           <t>1.4 [1.2,1.8]</t>
         </is>
@@ -2743,10 +2443,10 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A29:A34"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A38:A40"/>
     <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A32:A37"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/table1/coh_2.xlsx
+++ b/results/table1/coh_2.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,10 +519,10 @@
       <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>4354</v>
+        <v>1878</v>
       </c>
       <c r="E4" t="n">
-        <v>8406</v>
+        <v>7932</v>
       </c>
     </row>
     <row r="5">
@@ -541,12 +541,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1179 (27.1)</t>
+          <t>777 (41.4)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3203 (38.1)</t>
+          <t>2971 (37.5)</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1038 (23.8)</t>
+          <t>453 (24.1)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1984 (23.6)</t>
+          <t>1879 (23.7)</t>
         </is>
       </c>
     </row>
@@ -579,12 +579,12 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1164 (26.7)</t>
+          <t>392 (20.9)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1866 (22.2)</t>
+          <t>1793 (22.6)</t>
         </is>
       </c>
     </row>
@@ -598,12 +598,12 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>973 (22.3)</t>
+          <t>256 (13.6)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1353 (16.1)</t>
+          <t>1289 (16.3)</t>
         </is>
       </c>
     </row>
@@ -623,12 +623,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1854 (42.6)</t>
+          <t>871 (46.4)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3536 (42.1)</t>
+          <t>3346 (42.2)</t>
         </is>
       </c>
     </row>
@@ -648,12 +648,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1725 (39.6)</t>
+          <t>712 (37.9)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4245 (50.5)</t>
+          <t>3995 (50.4)</t>
         </is>
       </c>
     </row>
@@ -667,12 +667,12 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>496 (11.4)</t>
+          <t>261 (13.9)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>464 (5.5)</t>
+          <t>438 (5.5)</t>
         </is>
       </c>
     </row>
@@ -686,12 +686,12 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2133 (49.0)</t>
+          <t>905 (48.2)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3697 (44.0)</t>
+          <t>3499 (44.1)</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>970 (22.3)</t>
+          <t>593 (31.6)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>397 (4.7)</t>
+          <t>373 (4.7)</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>269 (6.2)</t>
+          <t>137 (7.3)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1058 (12.6)</t>
+          <t>1025 (12.9)</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1521 (34.9)</t>
+          <t>650 (34.6)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3485 (41.5)</t>
+          <t>3322 (41.9)</t>
         </is>
       </c>
     </row>
@@ -786,12 +786,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1127 (25.9)</t>
+          <t>370 (19.7)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1764 (21.0)</t>
+          <t>1464 (18.5)</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1457 (33.5)</t>
+          <t>533 (28.4)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2538 (30.2)</t>
+          <t>2173 (27.4)</t>
         </is>
       </c>
     </row>
@@ -836,12 +836,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2949 (67.7)</t>
+          <t>1103 (58.7)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5140 (61.1)</t>
+          <t>4803 (60.6)</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>491 (11.3)</t>
+          <t>232 (12.4)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>654 (7.8)</t>
+          <t>593 (7.5)</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2243 (51.5)</t>
+          <t>874 (46.5)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4537 (54.0)</t>
+          <t>4249 (53.6)</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3215 (73.8)</t>
+          <t>1220 (65.0)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5716 (68.0)</t>
+          <t>5314 (67.0)</t>
         </is>
       </c>
     </row>
@@ -936,12 +936,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>739 (17.0)</t>
+          <t>320 (17.0)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1075 (12.8)</t>
+          <t>936 (11.8)</t>
         </is>
       </c>
     </row>
@@ -961,12 +961,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2560 (58.8)</t>
+          <t>987 (52.6)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5128 (61.0)</t>
+          <t>4746 (59.8)</t>
         </is>
       </c>
     </row>
@@ -986,12 +986,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2782 (63.9)</t>
+          <t>1212 (64.5)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5315 (63.2)</t>
+          <t>4949 (62.4)</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1011,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>556 (12.8)</t>
+          <t>221 (11.8)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1140 (13.6)</t>
+          <t>1058 (13.3)</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4296 (98.7)</t>
+          <t>1845 (98.2)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>8295 (98.7)</t>
+          <t>7821 (98.6)</t>
         </is>
       </c>
     </row>
@@ -1061,12 +1061,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2865 (65.8)</t>
+          <t>1328 (70.7)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5496 (65.4)</t>
+          <t>5205 (65.6)</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1553 (35.7)</t>
+          <t>721 (38.4)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3195 (38.0)</t>
+          <t>2989 (37.7)</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1111,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1013 (23.3)</t>
+          <t>435 (23.2)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2126 (25.3)</t>
+          <t>2002 (25.2)</t>
         </is>
       </c>
     </row>
@@ -1136,12 +1136,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>51 (1.2)</t>
+          <t>24 (1.3)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>136 (1.6)</t>
+          <t>119 (1.5)</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1409 (32.4)</t>
+          <t>573 (30.5)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3177 (37.8)</t>
+          <t>3011 (38.0)</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4 (0.1)</t>
+          <t>3 (0.2)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1201,12 +1201,12 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>23 (0.5)</t>
+          <t>11 (0.6)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>55 (0.7)</t>
+          <t>53 (0.7)</t>
         </is>
       </c>
     </row>
@@ -1220,12 +1220,12 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>241 (5.5)</t>
+          <t>129 (6.9)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>423 (5.0)</t>
+          <t>406 (5.1)</t>
         </is>
       </c>
     </row>
@@ -1239,12 +1239,12 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>84 (1.9)</t>
+          <t>49 (2.6)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>156 (1.9)</t>
+          <t>146 (1.8)</t>
         </is>
       </c>
     </row>
@@ -1258,12 +1258,12 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>320 (7.3)</t>
+          <t>207 (11.0)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>410 (4.9)</t>
+          <t>383 (4.8)</t>
         </is>
       </c>
     </row>
@@ -1277,12 +1277,12 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3682 (84.6)</t>
+          <t>1479 (78.8)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7362 (87.6)</t>
+          <t>6944 (87.5)</t>
         </is>
       </c>
     </row>
@@ -1302,12 +1302,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>105 (2.4)</t>
+          <t>62 (3.3)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>239 (2.8)</t>
+          <t>226 (2.8)</t>
         </is>
       </c>
     </row>
@@ -1321,12 +1321,12 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1436 (33.0)</t>
+          <t>747 (39.8)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2351 (28.0)</t>
+          <t>2226 (28.1)</t>
         </is>
       </c>
     </row>
@@ -1340,12 +1340,12 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2813 (64.6)</t>
+          <t>1069 (56.9)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5816 (69.2)</t>
+          <t>5480 (69.1)</t>
         </is>
       </c>
     </row>
@@ -1365,12 +1365,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>177 (4.1)</t>
+          <t>91 (4.8)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>398 (4.7)</t>
+          <t>374 (4.7)</t>
         </is>
       </c>
     </row>
@@ -1390,12 +1390,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>240 (5.5)</t>
+          <t>97 (5.2)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>431 (5.1)</t>
+          <t>412 (5.2)</t>
         </is>
       </c>
     </row>
@@ -1415,12 +1415,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>25 (0.6)</t>
+          <t>12 (0.6)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>62 (0.7)</t>
+          <t>58 (0.7)</t>
         </is>
       </c>
     </row>
@@ -1440,12 +1440,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5 (0.1)</t>
+          <t>1 (0.1)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>16 (0.2)</t>
+          <t>13 (0.2)</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3 (0.1)</t>
+          <t>2 (0.1)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>64 [52,76]</t>
+          <t>64 [51,75]</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1503,16 +1503,16 @@
       </c>
       <c r="B47" s="1" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>9869</v>
+        <v>7976</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>7.00 [4.52,12.04]</t>
+          <t>6.65 [4.30,10.23]</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>7.04 [4.54,11.63]</t>
+          <t>6.63 [4.37,10.63]</t>
         </is>
       </c>
     </row>
@@ -1524,16 +1524,16 @@
       </c>
       <c r="B48" s="1" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>2891</v>
+        <v>1834</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>6.17 [4.08,11.17]</t>
+          <t>5.67 [3.92,9.84]</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5.67 [3.92,9.45]</t>
+          <t>5.46 [3.92,9.04]</t>
         </is>
       </c>
     </row>
@@ -1545,16 +1545,16 @@
       </c>
       <c r="B49" s="1" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>9869</v>
+        <v>7976</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>11.00 [6.00,19.00]</t>
+          <t>11.00 [7.00,19.75]</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>12.00 [7.00,20.00]</t>
+          <t>12.00 [7.00,19.00]</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="B50" s="1" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>2891</v>
+        <v>1834</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>13.00 [9.00,21.75]</t>
+          <t>13.00 [9.00,21.00]</t>
         </is>
       </c>
     </row>
@@ -1629,16 +1629,16 @@
       </c>
       <c r="B53" s="1" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>3845</v>
+        <v>3187</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3 [1,4]</t>
+          <t>2 [1,3]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2 [1,3]</t>
+          <t>2 [2,3]</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="B54" s="1" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="B55" s="1" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>4591</v>
+        <v>3716</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1692,11 +1692,11 @@
       </c>
       <c r="B56" s="1" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1 [1,4]</t>
+          <t>1 [1,3]</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B57" s="1" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1750,691 +1750,544 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>sofa_max_0_24h, median [Q1,Q3]</t>
+          <t>Fluids Volume (first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B59" s="1" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>11</v>
+        <v>3642</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>6.0 [3.0,9.0]</t>
+          <t>843 [251,1516]</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>6.0 [3.0,8.0]</t>
+          <t>750 [250,1555]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>respiratory_max_0_24h, median [Q1,Q3]</t>
+          <t>Fluids Volume (whole stay), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1.0 [0.0,3.0]</t>
+          <t>3460 [1437,7132]</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2.0 [0.0,2.0]</t>
+          <t>3254 [1261,6823]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>coagulation_max_0_24h, median [Q1,Q3]</t>
+          <t>Fluids Volume (whole stay, normalized by ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>516.0 [251.4,928.5]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>490.4 [227.6,883.4]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>liver_max_0_24h, median [Q1,Q3]</t>
+          <t>FiO2 (mean %, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>11</v>
+        <v>5498</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.0 [0.0,0.0]</t>
+          <t>50 [40,60]</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.0 [0.0,0.0]</t>
+          <t>50 [42,65]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>cardiovascular_max_0_24h, median [Q1,Q3]</t>
+          <t>MV_time_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>11</v>
+        <v>3276</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1.0 [1.0,3.0]</t>
+          <t>49.0 [21.8,100.0]</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1.0 [1.0,3.0]</t>
+          <t>42.0 [18.0,91.0]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>cns_max_0_24h, median [Q1,Q3]</t>
+          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>11</v>
+        <v>3276</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>0.30 [0.14,0.50]</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>0.25 [0.12,0.45]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>renal_max_0_24h, median [Q1,Q3]</t>
+          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>11</v>
+        <v>3276</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.0 [0.0,2.0]</t>
+          <t>2.0 [1.0,10.0]</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.0 [0.0,2.0]</t>
+          <t>3.0 [1.0,10.0]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Fluids Volume (first 24h), median [Q1,Q3]</t>
+          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>4493</v>
+        <v>8554</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>888 [295,1611]</t>
+          <t>18.5 [4.0,55.0]</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>784 [250,1583]</t>
+          <t>27.0 [6.0,69.0]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Fluids Volume (whole stay), median [Q1,Q3]</t>
+          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>169</v>
+        <v>3992</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4268 [1712,8599]</t>
+          <t>4.0 [1.0,17.0]</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3479 [1335,7371]</t>
+          <t>4.0 [1.0,14.0]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Fluids Volume (whole stay, normalized by ICU LOS), median [Q1,Q3]</t>
+          <t>VP_time_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>169</v>
+        <v>3992</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>558.1 [286.6,975.2]</t>
+          <t>37.0 [11.0,79.8]</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>503.4 [239.3,895.0]</t>
+          <t>37.0 [14.0,76.0]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>FiO2 (mean %, first 24h), median [Q1,Q3]</t>
+          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B69" s="1" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>6728</v>
+        <v>3992</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>50 [40,61]</t>
+          <t>0.22 [0.07,0.46]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>50 [42,65]</t>
+          <t>0.24 [0.09,0.47]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>MV_time_abs_hours, median [Q1,Q3]</t>
+          <t>Respiratory Rate (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>3829</v>
+        <v>22</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>56.0 [23.0,115.0]</t>
+          <t>19.5 [16.9,22.8]</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>46.0 [19.0,101.0]</t>
+          <t>19.3 [17.0,22.2]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
+          <t>Mean Blood Pressure (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>3829</v>
+        <v>17</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.31 [0.15,0.53]</t>
+          <t>77.9 [71.5,85.9]</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0.26 [0.13,0.46]</t>
+          <t>74.8 [69.4,82.0]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>Temperature (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>3829</v>
+        <v>551</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2.0 [1.0,7.0]</t>
+          <t>36.9 [36.6,37.3]</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3.0 [1.0,11.0]</t>
+          <t>36.9 [36.6,37.3]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>SpO2 (%, mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B73" s="1" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>10946</v>
+        <v>18</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>23.0 [6.0,66.0]</t>
+          <t>97.9 [96.3,99.2]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>30.0 [7.5,77.0]</t>
+          <t>97.3 [95.7,98.6]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>Heart Rate (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>4959</v>
+        <v>17</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3.0 [1.0,18.0]</t>
+          <t>87.8 [76.7,101.0]</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4.0 [1.0,15.0]</t>
+          <t>86.5 [76.0,98.7]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>VP_time_abs_hours, median [Q1,Q3]</t>
+          <t>PaO2 (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B75" s="1" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>4959</v>
+        <v>2694</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>43.0 [15.0,97.0]</t>
+          <t>87.0 [68.0,124.0]</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>40.0 [15.0,84.0]</t>
+          <t>86.0 [70.0,114.0]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
+          <t>PaCO2 (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B76" s="1" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>4959</v>
+        <v>2694</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.25 [0.08,0.51]</t>
+          <t>44.0 [37.0,52.0]</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.25 [0.09,0.47]</t>
+          <t>45.0 [39.0,53.0]</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Respiratory Rate (mean, first 24h), median [Q1,Q3]</t>
+          <t>pH (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B77" s="1" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>26</v>
+        <v>1511</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>19.6 [17.1,22.6]</t>
+          <t>7.3 [7.2,7.4]</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>19.3 [17.0,22.3]</t>
+          <t>7.3 [7.2,7.4]</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Mean Blood Pressure (mean, first 24h), median [Q1,Q3]</t>
+          <t>Glucose (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B78" s="1" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>77.0 [71.0,85.0]</t>
+          <t>157.0 [123.0,223.0]</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>74.8 [69.4,81.9]</t>
+          <t>150.0 [121.0,198.0]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Temperature (mean, first 24h), median [Q1,Q3]</t>
+          <t>Sodium (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B79" s="1" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>733</v>
+        <v>15</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>37.0 [36.6,37.4]</t>
+          <t>137.0 [134.0,140.0]</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>36.9 [36.6,37.3]</t>
+          <t>137.0 [134.0,140.0]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>SpO2 (%, mean, first 24h), median [Q1,Q3]</t>
+          <t>Potassium (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B80" s="1" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>97.7 [96.1,99.0]</t>
+          <t>4.5 [4.1,5.2]</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>97.2 [95.7,98.6]</t>
+          <t>4.5 [4.1,5.0]</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Heart Rate (mean, first 24h), median [Q1,Q3]</t>
+          <t>Cortisol (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B81" s="1" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>21</v>
+        <v>9562</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>86.7 [76.1,99.8]</t>
+          <t>18.9 [13.5,29.3]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>86.7 [76.1,99.0]</t>
+          <t>22.8 [12.6,35.5]</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>PaO2 (min, first 24h), median [Q1,Q3]</t>
+          <t>Hemoglobin (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B82" s="1" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>3247</v>
+        <v>1304</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>87.0 [69.0,121.0]</t>
+          <t>9.8 [8.2,11.5]</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>86.0 [70.0,114.0]</t>
+          <t>10.0 [8.5,11.6]</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>PaCO2 (max, first 24h), median [Q1,Q3]</t>
+          <t>Fibrinogen (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B83" s="1" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>3247</v>
+        <v>6377</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>44.0 [38.0,52.0]</t>
+          <t>225.5 [150.0,357.5]</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>45.0 [39.0,53.0]</t>
+          <t>231.0 [162.0,353.0]</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>pH (min, first 24h), median [Q1,Q3]</t>
+          <t>INR (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B84" s="1" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>1801</v>
+        <v>579</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>7.3 [7.2,7.4]</t>
+          <t>1.4 [1.2,1.8]</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
-        <is>
-          <t>7.3 [7.2,7.4]</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>Glucose (max, first 24h), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B85" s="1" t="inlineStr"/>
-      <c r="C85" t="n">
-        <v>44</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>156.0 [124.0,212.0]</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>150.0 [122.0,199.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>Sodium (min, first 24h), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B86" s="1" t="inlineStr"/>
-      <c r="C86" t="n">
-        <v>19</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>137.0 [134.0,140.0]</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>137.0 [134.0,140.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>Potassium (max, first 24h), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B87" s="1" t="inlineStr"/>
-      <c r="C87" t="n">
-        <v>23</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>4.5 [4.1,5.1]</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>4.5 [4.1,5.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>Cortisol (min, first 24h), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B88" s="1" t="inlineStr"/>
-      <c r="C88" t="n">
-        <v>12444</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>22.4 [13.6,35.9]</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>23.1 [12.8,36.6]</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>Hemoglobin (min, first 24h), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B89" s="1" t="inlineStr"/>
-      <c r="C89" t="n">
-        <v>1711</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>10.0 [8.5,11.7]</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>10.0 [8.5,11.6]</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>Fibrinogen (min, first 24h), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B90" s="1" t="inlineStr"/>
-      <c r="C90" t="n">
-        <v>8125</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>232.0 [159.0,353.5]</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>233.0 [162.0,356.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
-        <is>
-          <t>INR (max, first 24h), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B91" s="1" t="inlineStr"/>
-      <c r="C91" t="n">
-        <v>661</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>1.3 [1.2,1.7]</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
         <is>
           <t>1.4 [1.2,1.8]</t>
         </is>

--- a/results/table1/coh_2.xlsx
+++ b/results/table1/coh_2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/results/table1/coh_2.xlsx
+++ b/results/table1/coh_2.xlsx
@@ -519,10 +519,10 @@
       <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>1878</v>
+        <v>1987</v>
       </c>
       <c r="E4" t="n">
-        <v>7932</v>
+        <v>8423</v>
       </c>
     </row>
     <row r="5">
@@ -541,12 +541,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>777 (41.4)</t>
+          <t>833 (41.9)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2971 (37.5)</t>
+          <t>3214 (38.2)</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>453 (24.1)</t>
+          <t>480 (24.2)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1879 (23.7)</t>
+          <t>1988 (23.6)</t>
         </is>
       </c>
     </row>
@@ -579,12 +579,12 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>392 (20.9)</t>
+          <t>412 (20.7)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1793 (22.6)</t>
+          <t>1868 (22.2)</t>
         </is>
       </c>
     </row>
@@ -598,12 +598,12 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>256 (13.6)</t>
+          <t>262 (13.2)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1289 (16.3)</t>
+          <t>1353 (16.1)</t>
         </is>
       </c>
     </row>
@@ -623,12 +623,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>871 (46.4)</t>
+          <t>920 (46.3)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3346 (42.2)</t>
+          <t>3546 (42.1)</t>
         </is>
       </c>
     </row>
@@ -648,12 +648,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>712 (37.9)</t>
+          <t>751 (37.8)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3995 (50.4)</t>
+          <t>4253 (50.5)</t>
         </is>
       </c>
     </row>
@@ -667,12 +667,12 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>261 (13.9)</t>
+          <t>282 (14.2)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>438 (5.5)</t>
+          <t>467 (5.5)</t>
         </is>
       </c>
     </row>
@@ -686,12 +686,12 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>905 (48.2)</t>
+          <t>954 (48.0)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3499 (44.1)</t>
+          <t>3703 (44.0)</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>593 (31.6)</t>
+          <t>628 (31.6)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>373 (4.7)</t>
+          <t>399 (4.7)</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>137 (7.3)</t>
+          <t>139 (7.0)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1025 (12.9)</t>
+          <t>1060 (12.6)</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>650 (34.6)</t>
+          <t>680 (34.2)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3322 (41.9)</t>
+          <t>3490 (41.4)</t>
         </is>
       </c>
     </row>
@@ -786,12 +786,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>370 (19.7)</t>
+          <t>438 (22.0)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1464 (18.5)</t>
+          <t>1770 (21.0)</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>533 (28.4)</t>
+          <t>611 (30.7)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2173 (27.4)</t>
+          <t>2544 (30.2)</t>
         </is>
       </c>
     </row>
@@ -836,12 +836,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1103 (58.7)</t>
+          <t>1186 (59.7)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4803 (60.6)</t>
+          <t>5151 (61.2)</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>232 (12.4)</t>
+          <t>257 (12.9)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>593 (7.5)</t>
+          <t>657 (7.8)</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>874 (46.5)</t>
+          <t>953 (48.0)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4249 (53.6)</t>
+          <t>4545 (54.0)</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1220 (65.0)</t>
+          <t>1319 (66.4)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5314 (67.0)</t>
+          <t>5728 (68.0)</t>
         </is>
       </c>
     </row>
@@ -936,12 +936,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>320 (17.0)</t>
+          <t>367 (18.5)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>936 (11.8)</t>
+          <t>1080 (12.8)</t>
         </is>
       </c>
     </row>
@@ -961,12 +961,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>987 (52.6)</t>
+          <t>1082 (54.5)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4746 (59.8)</t>
+          <t>5137 (61.0)</t>
         </is>
       </c>
     </row>
@@ -986,12 +986,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1212 (64.5)</t>
+          <t>1296 (65.2)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4949 (62.4)</t>
+          <t>5325 (63.2)</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1011,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>221 (11.8)</t>
+          <t>243 (12.2)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1058 (13.3)</t>
+          <t>1141 (13.5)</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1845 (98.2)</t>
+          <t>1954 (98.3)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7821 (98.6)</t>
+          <t>8312 (98.7)</t>
         </is>
       </c>
     </row>
@@ -1061,12 +1061,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1328 (70.7)</t>
+          <t>1409 (70.9)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5205 (65.6)</t>
+          <t>5503 (65.3)</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>721 (38.4)</t>
+          <t>763 (38.4)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2989 (37.7)</t>
+          <t>3201 (38.0)</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1111,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>435 (23.2)</t>
+          <t>457 (23.0)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2002 (25.2)</t>
+          <t>2130 (25.3)</t>
         </is>
       </c>
     </row>
@@ -1136,12 +1136,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>24 (1.3)</t>
+          <t>25 (1.3)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>119 (1.5)</t>
+          <t>136 (1.6)</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>573 (30.5)</t>
+          <t>603 (30.3)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3011 (38.0)</t>
+          <t>3181 (37.8)</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>11 (0.6)</t>
+          <t>12 (0.6)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>53 (0.7)</t>
+          <t>55 (0.7)</t>
         </is>
       </c>
     </row>
@@ -1220,12 +1220,12 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>129 (6.9)</t>
+          <t>137 (6.9)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>406 (5.1)</t>
+          <t>423 (5.0)</t>
         </is>
       </c>
     </row>
@@ -1239,12 +1239,12 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>49 (2.6)</t>
+          <t>53 (2.7)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>146 (1.8)</t>
+          <t>156 (1.9)</t>
         </is>
       </c>
     </row>
@@ -1258,12 +1258,12 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>207 (11.0)</t>
+          <t>224 (11.3)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>383 (4.8)</t>
+          <t>412 (4.9)</t>
         </is>
       </c>
     </row>
@@ -1277,12 +1277,12 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1479 (78.8)</t>
+          <t>1558 (78.4)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>6944 (87.5)</t>
+          <t>7377 (87.6)</t>
         </is>
       </c>
     </row>
@@ -1302,12 +1302,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>62 (3.3)</t>
+          <t>62 (3.1)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>226 (2.8)</t>
+          <t>240 (2.8)</t>
         </is>
       </c>
     </row>
@@ -1321,12 +1321,12 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>747 (39.8)</t>
+          <t>786 (39.6)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2226 (28.1)</t>
+          <t>2355 (28.0)</t>
         </is>
       </c>
     </row>
@@ -1340,12 +1340,12 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1069 (56.9)</t>
+          <t>1139 (57.3)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5480 (69.1)</t>
+          <t>5828 (69.2)</t>
         </is>
       </c>
     </row>
@@ -1365,12 +1365,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>91 (4.8)</t>
+          <t>94 (4.7)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>374 (4.7)</t>
+          <t>401 (4.8)</t>
         </is>
       </c>
     </row>
@@ -1390,12 +1390,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>97 (5.2)</t>
+          <t>104 (5.2)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>412 (5.2)</t>
+          <t>431 (5.1)</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>58 (0.7)</t>
+          <t>62 (0.7)</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>13 (0.2)</t>
+          <t>16 (0.2)</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>64 [51,75]</t>
+          <t>64 [52,75]</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1503,16 +1503,16 @@
       </c>
       <c r="B47" s="1" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>7976</v>
+        <v>8202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>6.65 [4.30,10.23]</t>
+          <t>6.88 [4.47,11.46]</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>6.63 [4.37,10.63]</t>
+          <t>7.02 [4.54,11.63]</t>
         </is>
       </c>
     </row>
@@ -1524,16 +1524,16 @@
       </c>
       <c r="B48" s="1" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>1834</v>
+        <v>2208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>5.67 [3.92,9.84]</t>
+          <t>5.79 [3.96,10.42]</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5.46 [3.92,9.04]</t>
+          <t>5.67 [3.92,9.46]</t>
         </is>
       </c>
     </row>
@@ -1545,16 +1545,16 @@
       </c>
       <c r="B49" s="1" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>7976</v>
+        <v>8202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>11.00 [7.00,19.75]</t>
+          <t>12.00 [7.00,20.00]</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>12.00 [7.00,19.00]</t>
+          <t>12.00 [7.00,20.00]</t>
         </is>
       </c>
     </row>
@@ -1566,11 +1566,11 @@
       </c>
       <c r="B50" s="1" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>1834</v>
+        <v>2208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>14.00 [9.00,23.00]</t>
+          <t>14.00 [9.00,24.00]</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1629,16 +1629,16 @@
       </c>
       <c r="B53" s="1" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>3187</v>
+        <v>3349</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>2 [1,4]</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>2 [1,3]</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>2 [2,3]</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="B54" s="1" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="B55" s="1" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>3716</v>
+        <v>3863</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1692,11 +1692,11 @@
       </c>
       <c r="B56" s="1" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1 [1,3]</t>
+          <t>1 [1,4]</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B57" s="1" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1755,16 +1755,16 @@
       </c>
       <c r="B59" s="1" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>3642</v>
+        <v>3848</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>843 [251,1516]</t>
+          <t>861 [258,1533]</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>750 [250,1555]</t>
+          <t>784 [250,1582]</t>
         </is>
       </c>
     </row>
@@ -1780,12 +1780,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3460 [1437,7132]</t>
+          <t>3795 [1521,7992]</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3254 [1261,6823]</t>
+          <t>3480 [1340,7370]</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>516.0 [251.4,928.5]</t>
+          <t>540.2 [271.1,953.8]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>490.4 [227.6,883.4]</t>
+          <t>503.4 [239.2,895.4]</t>
         </is>
       </c>
     </row>
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B62" s="1" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>5498</v>
+        <v>5801</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1839,16 +1839,16 @@
       </c>
       <c r="B63" s="1" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>3276</v>
+        <v>3363</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>49.0 [21.8,100.0]</t>
+          <t>55.0 [23.0,112.5]</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>42.0 [18.0,91.0]</t>
+          <t>46.0 [19.0,101.0]</t>
         </is>
       </c>
     </row>
@@ -1860,16 +1860,16 @@
       </c>
       <c r="B64" s="1" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>3276</v>
+        <v>3363</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.30 [0.14,0.50]</t>
+          <t>0.32 [0.15,0.53]</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.25 [0.12,0.45]</t>
+          <t>0.26 [0.13,0.46]</t>
         </is>
       </c>
     </row>
@@ -1881,16 +1881,16 @@
       </c>
       <c r="B65" s="1" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>3276</v>
+        <v>3363</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2.0 [1.0,10.0]</t>
+          <t>3.0 [1.0,10.0]</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3.0 [1.0,10.0]</t>
+          <t>3.0 [1.0,11.0]</t>
         </is>
       </c>
     </row>
@@ -1902,16 +1902,16 @@
       </c>
       <c r="B66" s="1" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>8554</v>
+        <v>8963</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>18.5 [4.0,55.0]</t>
+          <t>21.0 [5.0,60.0]</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>27.0 [6.0,69.0]</t>
+          <t>30.5 [7.8,77.0]</t>
         </is>
       </c>
     </row>
@@ -1923,16 +1923,16 @@
       </c>
       <c r="B67" s="1" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>3992</v>
+        <v>4101</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4.0 [1.0,17.0]</t>
+          <t>4.0 [1.0,18.5]</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4.0 [1.0,14.0]</t>
+          <t>4.0 [1.0,15.8]</t>
         </is>
       </c>
     </row>
@@ -1944,16 +1944,16 @@
       </c>
       <c r="B68" s="1" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>3992</v>
+        <v>4101</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>37.0 [11.0,79.8]</t>
+          <t>41.0 [13.0,90.0]</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>37.0 [14.0,76.0]</t>
+          <t>40.0 [15.0,84.0]</t>
         </is>
       </c>
     </row>
@@ -1965,16 +1965,16 @@
       </c>
       <c r="B69" s="1" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>3992</v>
+        <v>4101</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.22 [0.07,0.46]</t>
+          <t>0.23 [0.08,0.49]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.24 [0.09,0.47]</t>
+          <t>0.25 [0.09,0.47]</t>
         </is>
       </c>
     </row>
@@ -1986,16 +1986,16 @@
       </c>
       <c r="B70" s="1" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>19.5 [16.9,22.8]</t>
+          <t>19.5 [17.0,22.8]</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>19.3 [17.0,22.2]</t>
+          <t>19.3 [17.0,22.3]</t>
         </is>
       </c>
     </row>
@@ -2007,16 +2007,16 @@
       </c>
       <c r="B71" s="1" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>77.9 [71.5,85.9]</t>
+          <t>77.6 [71.3,85.5]</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>74.8 [69.4,82.0]</t>
+          <t>74.8 [69.4,81.9]</t>
         </is>
       </c>
     </row>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="B72" s="1" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>551</v>
+        <v>580</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2049,16 +2049,16 @@
       </c>
       <c r="B73" s="1" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>97.9 [96.3,99.2]</t>
+          <t>97.9 [96.2,99.2]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>97.3 [95.7,98.6]</t>
+          <t>97.2 [95.7,98.6]</t>
         </is>
       </c>
     </row>
@@ -2070,16 +2070,16 @@
       </c>
       <c r="B74" s="1" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>87.8 [76.7,101.0]</t>
+          <t>87.9 [76.9,101.0]</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>86.5 [76.0,98.7]</t>
+          <t>86.7 [76.1,99.0]</t>
         </is>
       </c>
     </row>
@@ -2091,11 +2091,11 @@
       </c>
       <c r="B75" s="1" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>2694</v>
+        <v>2809</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>87.0 [68.0,124.0]</t>
+          <t>86.0 [67.0,122.0]</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="B76" s="1" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>2694</v>
+        <v>2809</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B77" s="1" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>1511</v>
+        <v>1573</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2154,16 +2154,16 @@
       </c>
       <c r="B78" s="1" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>157.0 [123.0,223.0]</t>
+          <t>158.0 [123.0,222.0]</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>150.0 [121.0,198.0]</t>
+          <t>150.0 [122.0,199.0]</t>
         </is>
       </c>
     </row>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="B79" s="1" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B80" s="1" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2217,16 +2217,16 @@
       </c>
       <c r="B81" s="1" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>9562</v>
+        <v>10141</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>18.9 [13.5,29.3]</t>
+          <t>19.0 [13.5,30.9]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>22.8 [12.6,35.5]</t>
+          <t>23.1 [12.9,36.6]</t>
         </is>
       </c>
     </row>
@@ -2238,11 +2238,11 @@
       </c>
       <c r="B82" s="1" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>1304</v>
+        <v>1367</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>9.8 [8.2,11.5]</t>
+          <t>9.9 [8.3,11.5]</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2259,16 +2259,16 @@
       </c>
       <c r="B83" s="1" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>6377</v>
+        <v>6767</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>225.5 [150.0,357.5]</t>
+          <t>226.0 [149.0,356.0]</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>231.0 [162.0,353.0]</t>
+          <t>233.0 [162.0,356.0]</t>
         </is>
       </c>
     </row>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="B84" s="1" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>579</v>
+        <v>597</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>

--- a/results/table1/coh_2.xlsx
+++ b/results/table1/coh_2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -519,10 +519,10 @@
       <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>1878</v>
+        <v>1987</v>
       </c>
       <c r="E4" t="n">
-        <v>7932</v>
+        <v>8423</v>
       </c>
     </row>
     <row r="5">
@@ -541,12 +541,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>777 (41.4)</t>
+          <t>833 (41.9)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2971 (37.5)</t>
+          <t>3214 (38.2)</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>453 (24.1)</t>
+          <t>480 (24.2)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1879 (23.7)</t>
+          <t>1988 (23.6)</t>
         </is>
       </c>
     </row>
@@ -579,12 +579,12 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>392 (20.9)</t>
+          <t>412 (20.7)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1793 (22.6)</t>
+          <t>1868 (22.2)</t>
         </is>
       </c>
     </row>
@@ -598,12 +598,12 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>256 (13.6)</t>
+          <t>262 (13.2)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1289 (16.3)</t>
+          <t>1353 (16.1)</t>
         </is>
       </c>
     </row>
@@ -623,12 +623,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>871 (46.4)</t>
+          <t>920 (46.3)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3346 (42.2)</t>
+          <t>3546 (42.1)</t>
         </is>
       </c>
     </row>
@@ -648,12 +648,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>712 (37.9)</t>
+          <t>751 (37.8)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3995 (50.4)</t>
+          <t>4253 (50.5)</t>
         </is>
       </c>
     </row>
@@ -667,12 +667,12 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>261 (13.9)</t>
+          <t>282 (14.2)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>438 (5.5)</t>
+          <t>467 (5.5)</t>
         </is>
       </c>
     </row>
@@ -686,12 +686,12 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>905 (48.2)</t>
+          <t>954 (48.0)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3499 (44.1)</t>
+          <t>3703 (44.0)</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>593 (31.6)</t>
+          <t>628 (31.6)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>373 (4.7)</t>
+          <t>399 (4.7)</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>137 (7.3)</t>
+          <t>139 (7.0)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1025 (12.9)</t>
+          <t>1060 (12.6)</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>650 (34.6)</t>
+          <t>680 (34.2)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3322 (41.9)</t>
+          <t>3490 (41.4)</t>
         </is>
       </c>
     </row>
@@ -786,12 +786,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>370 (19.7)</t>
+          <t>438 (22.0)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1464 (18.5)</t>
+          <t>1770 (21.0)</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>533 (28.4)</t>
+          <t>611 (30.7)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2173 (27.4)</t>
+          <t>2544 (30.2)</t>
         </is>
       </c>
     </row>
@@ -836,12 +836,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1103 (58.7)</t>
+          <t>1186 (59.7)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4803 (60.6)</t>
+          <t>5151 (61.2)</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>232 (12.4)</t>
+          <t>257 (12.9)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>593 (7.5)</t>
+          <t>657 (7.8)</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>874 (46.5)</t>
+          <t>953 (48.0)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4249 (53.6)</t>
+          <t>4545 (54.0)</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1220 (65.0)</t>
+          <t>1319 (66.4)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5314 (67.0)</t>
+          <t>5728 (68.0)</t>
         </is>
       </c>
     </row>
@@ -936,12 +936,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>320 (17.0)</t>
+          <t>367 (18.5)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>936 (11.8)</t>
+          <t>1080 (12.8)</t>
         </is>
       </c>
     </row>
@@ -961,12 +961,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>987 (52.6)</t>
+          <t>1082 (54.5)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4746 (59.8)</t>
+          <t>5137 (61.0)</t>
         </is>
       </c>
     </row>
@@ -986,12 +986,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1212 (64.5)</t>
+          <t>1296 (65.2)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4949 (62.4)</t>
+          <t>5325 (63.2)</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1011,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>221 (11.8)</t>
+          <t>243 (12.2)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1058 (13.3)</t>
+          <t>1141 (13.5)</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1845 (98.2)</t>
+          <t>1954 (98.3)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7821 (98.6)</t>
+          <t>8312 (98.7)</t>
         </is>
       </c>
     </row>
@@ -1061,12 +1061,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1328 (70.7)</t>
+          <t>1409 (70.9)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5205 (65.6)</t>
+          <t>5503 (65.3)</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>721 (38.4)</t>
+          <t>763 (38.4)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2989 (37.7)</t>
+          <t>3201 (38.0)</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1111,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>435 (23.2)</t>
+          <t>457 (23.0)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2002 (25.2)</t>
+          <t>2130 (25.3)</t>
         </is>
       </c>
     </row>
@@ -1136,12 +1136,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>24 (1.3)</t>
+          <t>25 (1.3)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>119 (1.5)</t>
+          <t>136 (1.6)</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>573 (30.5)</t>
+          <t>603 (30.3)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3011 (38.0)</t>
+          <t>3181 (37.8)</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>11 (0.6)</t>
+          <t>12 (0.6)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>53 (0.7)</t>
+          <t>55 (0.7)</t>
         </is>
       </c>
     </row>
@@ -1220,12 +1220,12 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>129 (6.9)</t>
+          <t>137 (6.9)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>406 (5.1)</t>
+          <t>423 (5.0)</t>
         </is>
       </c>
     </row>
@@ -1239,12 +1239,12 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>49 (2.6)</t>
+          <t>53 (2.7)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>146 (1.8)</t>
+          <t>156 (1.9)</t>
         </is>
       </c>
     </row>
@@ -1258,12 +1258,12 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>207 (11.0)</t>
+          <t>224 (11.3)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>383 (4.8)</t>
+          <t>412 (4.9)</t>
         </is>
       </c>
     </row>
@@ -1277,12 +1277,12 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1479 (78.8)</t>
+          <t>1558 (78.4)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>6944 (87.5)</t>
+          <t>7377 (87.6)</t>
         </is>
       </c>
     </row>
@@ -1302,12 +1302,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>62 (3.3)</t>
+          <t>62 (3.1)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>226 (2.8)</t>
+          <t>240 (2.8)</t>
         </is>
       </c>
     </row>
@@ -1321,12 +1321,12 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>747 (39.8)</t>
+          <t>786 (39.6)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2226 (28.1)</t>
+          <t>2355 (28.0)</t>
         </is>
       </c>
     </row>
@@ -1340,12 +1340,12 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1069 (56.9)</t>
+          <t>1139 (57.3)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5480 (69.1)</t>
+          <t>5828 (69.2)</t>
         </is>
       </c>
     </row>
@@ -1365,12 +1365,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>91 (4.8)</t>
+          <t>94 (4.7)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>374 (4.7)</t>
+          <t>401 (4.8)</t>
         </is>
       </c>
     </row>
@@ -1390,12 +1390,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>97 (5.2)</t>
+          <t>104 (5.2)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>412 (5.2)</t>
+          <t>431 (5.1)</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>58 (0.7)</t>
+          <t>62 (0.7)</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>13 (0.2)</t>
+          <t>16 (0.2)</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>64 [51,75]</t>
+          <t>64 [52,75]</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1503,16 +1503,16 @@
       </c>
       <c r="B47" s="1" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>7976</v>
+        <v>8202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>6.65 [4.30,10.23]</t>
+          <t>6.88 [4.47,11.46]</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>6.63 [4.37,10.63]</t>
+          <t>7.02 [4.54,11.63]</t>
         </is>
       </c>
     </row>
@@ -1524,16 +1524,16 @@
       </c>
       <c r="B48" s="1" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>1834</v>
+        <v>2208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>5.67 [3.92,9.84]</t>
+          <t>5.79 [3.96,10.42]</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5.46 [3.92,9.04]</t>
+          <t>5.67 [3.92,9.46]</t>
         </is>
       </c>
     </row>
@@ -1545,16 +1545,16 @@
       </c>
       <c r="B49" s="1" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>7976</v>
+        <v>8202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>11.00 [7.00,19.75]</t>
+          <t>12.00 [7.00,20.00]</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>12.00 [7.00,19.00]</t>
+          <t>12.00 [7.00,20.00]</t>
         </is>
       </c>
     </row>
@@ -1566,11 +1566,11 @@
       </c>
       <c r="B50" s="1" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>1834</v>
+        <v>2208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>14.00 [9.00,23.00]</t>
+          <t>14.00 [9.00,24.00]</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1629,16 +1629,16 @@
       </c>
       <c r="B53" s="1" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>3187</v>
+        <v>3349</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>2 [1,4]</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>2 [1,3]</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>2 [2,3]</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="B54" s="1" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="B55" s="1" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>3716</v>
+        <v>3863</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1692,11 +1692,11 @@
       </c>
       <c r="B56" s="1" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1 [1,3]</t>
+          <t>1 [1,4]</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B57" s="1" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1755,16 +1755,16 @@
       </c>
       <c r="B59" s="1" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>3642</v>
+        <v>3848</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>843 [251,1516]</t>
+          <t>861 [258,1533]</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>750 [250,1555]</t>
+          <t>784 [250,1582]</t>
         </is>
       </c>
     </row>
@@ -1780,12 +1780,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3460 [1437,7132]</t>
+          <t>3795 [1521,7992]</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3254 [1261,6823]</t>
+          <t>3480 [1340,7370]</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>516.0 [251.4,928.5]</t>
+          <t>540.2 [271.1,953.8]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>490.4 [227.6,883.4]</t>
+          <t>503.4 [239.2,895.4]</t>
         </is>
       </c>
     </row>
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B62" s="1" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>5498</v>
+        <v>5801</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1839,16 +1839,16 @@
       </c>
       <c r="B63" s="1" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>3276</v>
+        <v>3363</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>49.0 [21.8,100.0]</t>
+          <t>55.0 [23.0,112.5]</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>42.0 [18.0,91.0]</t>
+          <t>46.0 [19.0,101.0]</t>
         </is>
       </c>
     </row>
@@ -1860,16 +1860,16 @@
       </c>
       <c r="B64" s="1" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>3276</v>
+        <v>3363</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.30 [0.14,0.50]</t>
+          <t>0.32 [0.15,0.53]</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.25 [0.12,0.45]</t>
+          <t>0.26 [0.13,0.46]</t>
         </is>
       </c>
     </row>
@@ -1881,16 +1881,16 @@
       </c>
       <c r="B65" s="1" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>3276</v>
+        <v>3363</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2.0 [1.0,10.0]</t>
+          <t>3.0 [1.0,10.0]</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3.0 [1.0,10.0]</t>
+          <t>3.0 [1.0,11.0]</t>
         </is>
       </c>
     </row>
@@ -1902,16 +1902,16 @@
       </c>
       <c r="B66" s="1" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>8554</v>
+        <v>8963</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>18.5 [4.0,55.0]</t>
+          <t>21.0 [5.0,60.0]</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>27.0 [6.0,69.0]</t>
+          <t>30.5 [7.8,77.0]</t>
         </is>
       </c>
     </row>
@@ -1923,16 +1923,16 @@
       </c>
       <c r="B67" s="1" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>3992</v>
+        <v>4101</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4.0 [1.0,17.0]</t>
+          <t>4.0 [1.0,18.5]</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4.0 [1.0,14.0]</t>
+          <t>4.0 [1.0,15.8]</t>
         </is>
       </c>
     </row>
@@ -1944,16 +1944,16 @@
       </c>
       <c r="B68" s="1" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>3992</v>
+        <v>4101</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>37.0 [11.0,79.8]</t>
+          <t>41.0 [13.0,90.0]</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>37.0 [14.0,76.0]</t>
+          <t>40.0 [15.0,84.0]</t>
         </is>
       </c>
     </row>
@@ -1965,16 +1965,16 @@
       </c>
       <c r="B69" s="1" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>3992</v>
+        <v>4101</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.22 [0.07,0.46]</t>
+          <t>0.23 [0.08,0.49]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.24 [0.09,0.47]</t>
+          <t>0.25 [0.09,0.47]</t>
         </is>
       </c>
     </row>
@@ -1986,16 +1986,16 @@
       </c>
       <c r="B70" s="1" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>19.5 [16.9,22.8]</t>
+          <t>19.5 [17.0,22.8]</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>19.3 [17.0,22.2]</t>
+          <t>19.3 [17.0,22.3]</t>
         </is>
       </c>
     </row>
@@ -2007,16 +2007,16 @@
       </c>
       <c r="B71" s="1" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>77.9 [71.5,85.9]</t>
+          <t>77.6 [71.3,85.5]</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>74.8 [69.4,82.0]</t>
+          <t>74.8 [69.4,81.9]</t>
         </is>
       </c>
     </row>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="B72" s="1" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>551</v>
+        <v>580</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2049,16 +2049,16 @@
       </c>
       <c r="B73" s="1" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>97.9 [96.3,99.2]</t>
+          <t>97.9 [96.2,99.2]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>97.3 [95.7,98.6]</t>
+          <t>97.2 [95.7,98.6]</t>
         </is>
       </c>
     </row>
@@ -2070,16 +2070,16 @@
       </c>
       <c r="B74" s="1" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>87.8 [76.7,101.0]</t>
+          <t>87.9 [76.9,101.0]</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>86.5 [76.0,98.7]</t>
+          <t>86.7 [76.1,99.0]</t>
         </is>
       </c>
     </row>
@@ -2091,11 +2091,11 @@
       </c>
       <c r="B75" s="1" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>2694</v>
+        <v>2809</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>87.0 [68.0,124.0]</t>
+          <t>86.0 [67.0,122.0]</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="B76" s="1" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>2694</v>
+        <v>2809</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B77" s="1" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>1511</v>
+        <v>1573</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2154,16 +2154,16 @@
       </c>
       <c r="B78" s="1" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>157.0 [123.0,223.0]</t>
+          <t>158.0 [123.0,222.0]</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>150.0 [121.0,198.0]</t>
+          <t>150.0 [122.0,199.0]</t>
         </is>
       </c>
     </row>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="B79" s="1" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B80" s="1" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2217,16 +2217,16 @@
       </c>
       <c r="B81" s="1" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>9562</v>
+        <v>10141</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>18.9 [13.5,29.3]</t>
+          <t>19.0 [13.5,30.9]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>22.8 [12.6,35.5]</t>
+          <t>23.1 [12.9,36.6]</t>
         </is>
       </c>
     </row>
@@ -2238,11 +2238,11 @@
       </c>
       <c r="B82" s="1" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>1304</v>
+        <v>1367</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>9.8 [8.2,11.5]</t>
+          <t>9.9 [8.3,11.5]</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2259,16 +2259,16 @@
       </c>
       <c r="B83" s="1" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>6377</v>
+        <v>6767</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>225.5 [150.0,357.5]</t>
+          <t>226.0 [149.0,356.0]</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>231.0 [162.0,353.0]</t>
+          <t>233.0 [162.0,356.0]</t>
         </is>
       </c>
     </row>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="B84" s="1" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>579</v>
+        <v>597</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>

--- a/results/table1/coh_2.xlsx
+++ b/results/table1/coh_2.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,10 +519,10 @@
       <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>1987</v>
+        <v>1729</v>
       </c>
       <c r="E4" t="n">
-        <v>8423</v>
+        <v>7898</v>
       </c>
     </row>
     <row r="5">
@@ -541,12 +541,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>833 (41.9)</t>
+          <t>685 (39.6)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3214 (38.2)</t>
+          <t>2981 (37.7)</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>480 (24.2)</t>
+          <t>433 (25.0)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1988 (23.6)</t>
+          <t>1864 (23.6)</t>
         </is>
       </c>
     </row>
@@ -579,12 +579,12 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>412 (20.7)</t>
+          <t>370 (21.4)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1868 (22.2)</t>
+          <t>1767 (22.4)</t>
         </is>
       </c>
     </row>
@@ -598,12 +598,12 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>262 (13.2)</t>
+          <t>241 (13.9)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1353 (16.1)</t>
+          <t>1286 (16.3)</t>
         </is>
       </c>
     </row>
@@ -623,12 +623,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>920 (46.3)</t>
+          <t>799 (46.2)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3546 (42.1)</t>
+          <t>3344 (42.3)</t>
         </is>
       </c>
     </row>
@@ -648,12 +648,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>751 (37.8)</t>
+          <t>607 (35.1)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4253 (50.5)</t>
+          <t>3906 (49.5)</t>
         </is>
       </c>
     </row>
@@ -667,12 +667,12 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>282 (14.2)</t>
+          <t>256 (14.8)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>467 (5.5)</t>
+          <t>454 (5.7)</t>
         </is>
       </c>
     </row>
@@ -686,12 +686,12 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>954 (48.0)</t>
+          <t>866 (50.1)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3703 (44.0)</t>
+          <t>3538 (44.8)</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>628 (31.6)</t>
+          <t>579 (33.5)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>399 (4.7)</t>
+          <t>364 (4.6)</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>139 (7.0)</t>
+          <t>132 (7.6)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1060 (12.6)</t>
+          <t>1012 (12.8)</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>680 (34.2)</t>
+          <t>602 (34.8)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3490 (41.4)</t>
+          <t>3314 (42.0)</t>
         </is>
       </c>
     </row>
@@ -786,12 +786,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>438 (22.0)</t>
+          <t>364 (21.1)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1770 (21.0)</t>
+          <t>1614 (20.4)</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>611 (30.7)</t>
+          <t>508 (29.4)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2544 (30.2)</t>
+          <t>2320 (29.4)</t>
         </is>
       </c>
     </row>
@@ -836,12 +836,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1186 (59.7)</t>
+          <t>1057 (61.1)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5151 (61.2)</t>
+          <t>4875 (61.7)</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>257 (12.9)</t>
+          <t>78 (4.5)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>657 (7.8)</t>
+          <t>354 (4.5)</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>953 (48.0)</t>
+          <t>814 (47.1)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4545 (54.0)</t>
+          <t>4218 (53.4)</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1319 (66.4)</t>
+          <t>1166 (67.4)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5728 (68.0)</t>
+          <t>5413 (68.5)</t>
         </is>
       </c>
     </row>
@@ -936,12 +936,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>367 (18.5)</t>
+          <t>156 (9.0)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1080 (12.8)</t>
+          <t>694 (8.8)</t>
         </is>
       </c>
     </row>
@@ -961,12 +961,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1082 (54.5)</t>
+          <t>929 (53.7)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5137 (61.0)</t>
+          <t>4779 (60.5)</t>
         </is>
       </c>
     </row>
@@ -986,12 +986,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1296 (65.2)</t>
+          <t>1118 (64.7)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5325 (63.2)</t>
+          <t>4966 (62.9)</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1011,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>243 (12.2)</t>
+          <t>210 (12.1)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1141 (13.5)</t>
+          <t>1073 (13.6)</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1954 (98.3)</t>
+          <t>1704 (98.6)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>8312 (98.7)</t>
+          <t>7796 (98.7)</t>
         </is>
       </c>
     </row>
@@ -1061,12 +1061,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1409 (70.9)</t>
+          <t>1168 (67.6)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5503 (65.3)</t>
+          <t>5041 (63.8)</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>763 (38.4)</t>
+          <t>618 (35.7)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3201 (38.0)</t>
+          <t>2879 (36.5)</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1111,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>457 (23.0)</t>
+          <t>411 (23.8)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2130 (25.3)</t>
+          <t>1987 (25.2)</t>
         </is>
       </c>
     </row>
@@ -1136,12 +1136,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>25 (1.3)</t>
+          <t>20 (1.2)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>136 (1.6)</t>
+          <t>133 (1.7)</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>603 (30.3)</t>
+          <t>486 (28.1)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3181 (37.8)</t>
+          <t>2891 (36.6)</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>12 (0.6)</t>
+          <t>13 (0.8)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1220,12 +1220,12 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>137 (6.9)</t>
+          <t>143 (8.3)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>423 (5.0)</t>
+          <t>430 (5.4)</t>
         </is>
       </c>
     </row>
@@ -1233,37 +1233,43 @@
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>53 (2.7)</t>
+          <t>1570 (90.8)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>156 (1.9)</t>
+          <t>7413 (93.9)</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Diabetes Type, n (%)</t>
+        </is>
+      </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>224 (11.3)</t>
+          <t>37 (2.1)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>412 (4.9)</t>
+          <t>198 (2.5)</t>
         </is>
       </c>
     </row>
@@ -1271,88 +1277,94 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1558 (78.4)</t>
+          <t>642 (37.1)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7377 (87.6)</t>
+          <t>2101 (26.6)</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Diabetes Type, n (%)</t>
-        </is>
-      </c>
+      <c r="A38" s="1" t="n"/>
       <c r="B38" s="1" t="inlineStr">
         <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1050 (60.7)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>5599 (70.9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Connective Tissue Disease, n (%)</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>62 (3.1)</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>240 (2.8)</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>786 (39.6)</t>
+          <t>75 (4.3)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2355 (28.0)</t>
+          <t>360 (4.6)</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n"/>
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Pneumonia, n (%)</t>
+        </is>
+      </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1139 (57.3)</t>
+          <t>96 (5.6)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5828 (69.2)</t>
+          <t>409 (5.2)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Connective Tissue Disease, n (%)</t>
+          <t>Urinary Tract Infection, n (%)</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
@@ -1365,19 +1377,19 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>94 (4.7)</t>
+          <t>12 (0.7)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>401 (4.8)</t>
+          <t>61 (0.8)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Pneumonia, n (%)</t>
+          <t>Biliary Tract Infection, n (%)</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
@@ -1390,19 +1402,19 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>104 (5.2)</t>
+          <t>1 (0.1)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>431 (5.1)</t>
+          <t>15 (0.2)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Urinary Tract Infection, n (%)</t>
+          <t>Skin Infection, n (%)</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
@@ -1415,263 +1427,255 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>12 (0.6)</t>
+          <t>1 (0.1)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>62 (0.7)</t>
+          <t>9 (0.1)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Biliary Tract Infection, n (%)</t>
-        </is>
-      </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
+          <t>Age, median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr"/>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1 (0.1)</t>
+          <t>64 [52,75]</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>16 (0.2)</t>
+          <t>68 [57,78]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Skin Infection, n (%)</t>
-        </is>
-      </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
+          <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>7649</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2 (0.1)</t>
+          <t>6.86 [4.45,11.36]</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>9 (0.1)</t>
+          <t>7.04 [4.50,11.63]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Age, median [Q1,Q3]</t>
+          <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1978</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>64 [52,75]</t>
+          <t>5.83 [3.96,10.46]</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>68 [57,78]</t>
+          <t>5.67 [3.96,9.51]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
+          <t>Hospital LOS (days, if deceased), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>8202</v>
+        <v>7649</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>6.88 [4.47,11.46]</t>
+          <t>11.00 [7.00,20.00]</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>7.02 [4.54,11.63]</t>
+          <t>12.00 [7.00,19.75]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
+          <t>Hospital LOS (days, if survived), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>2208</v>
+        <v>1978</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>5.79 [3.96,10.42]</t>
+          <t>14.00 [9.00,24.00]</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5.67 [3.92,9.46]</t>
+          <t>13.00 [9.00,21.00]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Hospital LOS (days, if deceased), median [Q1,Q3]</t>
+          <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>8202</v>
+        <v>0</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>12.00 [7.00,20.00]</t>
+          <t>6 [4,8]</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>12.00 [7.00,20.00]</t>
+          <t>6 [4,8]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Hospital LOS (days, if survived), median [Q1,Q3]</t>
+          <t>SOFA Score (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>2208</v>
+        <v>0</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>14.00 [9.00,24.00]</t>
+          <t>6 [3,9]</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>13.00 [9.00,21.00]</t>
+          <t>6 [4,8]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
+          <t>SOFA: Respiratory (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>3027</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>2 [1,4]</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>2 [1,3]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>SOFA Score (admission), median [Q1,Q3]</t>
+          <t>SOFA: Coagulation (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>6 [4,9]</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>6 [4,9]</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Respiratory (admission), median [Q1,Q3]</t>
+          <t>SOFA: Liver (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B53" s="1" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>3349</v>
+        <v>3614</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2 [1,4]</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2 [1,3]</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Coagulation (admission), median [Q1,Q3]</t>
+          <t>SOFA: Cardiovascular (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B54" s="1" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>1 [1,3]</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>1 [1,3]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Liver (admission), median [Q1,Q3]</t>
+          <t>SOFA: CNS (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B55" s="1" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>3863</v>
+        <v>25</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1687,607 +1691,565 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Cardiovascular (admission), median [Q1,Q3]</t>
+          <t>SOFA: Renal (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B56" s="1" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1 [1,4]</t>
+          <t>1 [0,2]</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1 [1,3]</t>
+          <t>1 [0,1]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>SOFA: CNS (admission), median [Q1,Q3]</t>
+          <t>Fluids Volume (first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B57" s="1" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>26</v>
+        <v>3506</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>948 [276,1637]</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>807 [256,1600]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Renal (admission), median [Q1,Q3]</t>
+          <t>Fluids Volume (whole stay), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1 [0,2]</t>
+          <t>3881 [1553,8093]</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1 [0,2]</t>
+          <t>3534 [1369,7423]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Fluids Volume (first 24h), median [Q1,Q3]</t>
+          <t>Fluids Volume (whole stay, normalized by ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B59" s="1" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>3848</v>
+        <v>127</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>861 [258,1533]</t>
+          <t>553.1 [278.2,958.9]</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>784 [250,1582]</t>
+          <t>509.6 [243.7,904.8]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Fluids Volume (whole stay), median [Q1,Q3]</t>
+          <t>FiO2 (mean %, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>144</v>
+        <v>5278</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3795 [1521,7992]</t>
+          <t>50 [40,60]</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3480 [1340,7370]</t>
+          <t>50 [42,65]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Fluids Volume (whole stay, normalized by ICU LOS), median [Q1,Q3]</t>
+          <t>MV_time_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>144</v>
+        <v>3048</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>540.2 [271.1,953.8]</t>
+          <t>52.0 [22.0,106.8]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>503.4 [239.2,895.4]</t>
+          <t>46.0 [19.0,100.0]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>FiO2 (mean %, first 24h), median [Q1,Q3]</t>
+          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>5801</v>
+        <v>3048</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>50 [40,60]</t>
+          <t>0.31 [0.14,0.52]</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>50 [42,65]</t>
+          <t>0.26 [0.13,0.46]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>MV_time_abs_hours, median [Q1,Q3]</t>
+          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>3363</v>
+        <v>3048</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>55.0 [23.0,112.5]</t>
+          <t>2.0 [1.0,9.0]</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>46.0 [19.0,101.0]</t>
+          <t>3.0 [1.0,11.0]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
+          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>3363</v>
+        <v>8777</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.32 [0.15,0.53]</t>
+          <t>47.0 [11.5,100.8]</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.26 [0.13,0.46]</t>
+          <t>46.0 [14.2,103.0]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>3363</v>
+        <v>3836</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3.0 [1.0,10.0]</t>
+          <t>4.0 [1.0,20.0]</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3.0 [1.0,11.0]</t>
+          <t>4.0 [1.0,16.0]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>VP_time_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>8963</v>
+        <v>3836</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>21.0 [5.0,60.0]</t>
+          <t>37.0 [12.0,80.5]</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>30.5 [7.8,77.0]</t>
+          <t>39.0 [14.0,82.5]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>4101</v>
+        <v>3836</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4.0 [1.0,18.5]</t>
+          <t>0.21 [0.07,0.44]</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4.0 [1.0,15.8]</t>
+          <t>0.24 [0.09,0.47]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>VP_time_abs_hours, median [Q1,Q3]</t>
+          <t>Respiratory Rate (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>4101</v>
+        <v>26</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>41.0 [13.0,90.0]</t>
+          <t>19.7 [17.1,23.0]</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>40.0 [15.0,84.0]</t>
+          <t>19.4 [17.0,22.4]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
+          <t>Mean Blood Pressure (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B69" s="1" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>4101</v>
+        <v>21</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.23 [0.08,0.49]</t>
+          <t>78.1 [71.8,86.0]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.25 [0.09,0.47]</t>
+          <t>75.0 [69.5,82.1]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Respiratory Rate (mean, first 24h), median [Q1,Q3]</t>
+          <t>Temperature (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>26</v>
+        <v>545</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>19.5 [17.0,22.8]</t>
+          <t>36.9 [36.6,37.4]</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>19.3 [17.0,22.3]</t>
+          <t>36.9 [36.6,37.3]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Mean Blood Pressure (mean, first 24h), median [Q1,Q3]</t>
+          <t>SpO2 (%, mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>77.6 [71.3,85.5]</t>
+          <t>97.9 [96.2,99.2]</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>74.8 [69.4,81.9]</t>
+          <t>97.2 [95.7,98.6]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Temperature (mean, first 24h), median [Q1,Q3]</t>
+          <t>Heart Rate (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>580</v>
+        <v>21</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>36.9 [36.6,37.3]</t>
+          <t>88.5 [77.2,101.8]</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>36.9 [36.6,37.3]</t>
+          <t>86.9 [76.3,99.3]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>SpO2 (%, mean, first 24h), median [Q1,Q3]</t>
+          <t>PaO2 (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B73" s="1" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>24</v>
+        <v>2525</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>97.9 [96.2,99.2]</t>
+          <t>87.0 [68.0,122.0]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>97.2 [95.7,98.6]</t>
+          <t>86.0 [70.0,114.0]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Heart Rate (mean, first 24h), median [Q1,Q3]</t>
+          <t>PaCO2 (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>21</v>
+        <v>2525</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>87.9 [76.9,101.0]</t>
+          <t>44.0 [37.0,53.0]</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>86.7 [76.1,99.0]</t>
+          <t>46.0 [39.0,53.0]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>PaO2 (min, first 24h), median [Q1,Q3]</t>
+          <t>pH (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B75" s="1" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>2809</v>
+        <v>1427</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>86.0 [67.0,122.0]</t>
+          <t>7.3 [7.2,7.4]</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>86.0 [70.0,114.0]</t>
+          <t>7.3 [7.2,7.4]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>PaCO2 (max, first 24h), median [Q1,Q3]</t>
+          <t>Glucose (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B76" s="1" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>2809</v>
+        <v>36</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>44.0 [37.0,52.0]</t>
+          <t>158.0 [124.0,221.0]</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>45.0 [39.0,53.0]</t>
+          <t>150.0 [122.0,198.0]</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>pH (min, first 24h), median [Q1,Q3]</t>
+          <t>Sodium (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B77" s="1" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>1573</v>
+        <v>16</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>7.3 [7.2,7.4]</t>
+          <t>137.0 [134.0,140.0]</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>7.3 [7.2,7.4]</t>
+          <t>137.0 [134.0,140.0]</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Glucose (max, first 24h), median [Q1,Q3]</t>
+          <t>Potassium (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B78" s="1" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>158.0 [123.0,222.0]</t>
+          <t>4.5 [4.1,5.1]</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>150.0 [122.0,199.0]</t>
+          <t>4.5 [4.1,5.0]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Sodium (min, first 24h), median [Q1,Q3]</t>
+          <t>Cortisol (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B79" s="1" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>16</v>
+        <v>9386</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>137.0 [134.0,140.0]</t>
+          <t>22.5 [14.4,31.9]</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>137.0 [134.0,140.0]</t>
+          <t>23.1 [12.5,36.5]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Potassium (max, first 24h), median [Q1,Q3]</t>
+          <t>Hemoglobin (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B80" s="1" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>20</v>
+        <v>1289</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>4.5 [4.1,5.2]</t>
+          <t>10.0 [8.4,11.7]</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>4.5 [4.1,5.0]</t>
+          <t>10.1 [8.6,11.7]</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Cortisol (min, first 24h), median [Q1,Q3]</t>
+          <t>Fibrinogen (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B81" s="1" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>10141</v>
+        <v>6230</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>19.0 [13.5,30.9]</t>
+          <t>222.0 [149.2,351.8]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>23.1 [12.9,36.6]</t>
+          <t>230.0 [161.5,353.0]</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Hemoglobin (min, first 24h), median [Q1,Q3]</t>
+          <t>INR (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B82" s="1" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>1367</v>
+        <v>552</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>9.9 [8.3,11.5]</t>
+          <t>1.4 [1.2,1.7]</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
-        <is>
-          <t>10.0 [8.5,11.6]</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>Fibrinogen (min, first 24h), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B83" s="1" t="inlineStr"/>
-      <c r="C83" t="n">
-        <v>6767</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>226.0 [149.0,356.0]</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>233.0 [162.0,356.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>INR (max, first 24h), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B84" s="1" t="inlineStr"/>
-      <c r="C84" t="n">
-        <v>597</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>1.4 [1.2,1.8]</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
         <is>
           <t>1.4 [1.2,1.8]</t>
         </is>
@@ -2295,11 +2257,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A38:A40"/>
     <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A36:A38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
